--- a/symbolic-execution-engine/symbolic-execution-experiment/results/M3_vulnerable_system_calls.xlsx
+++ b/symbolic-execution-engine/symbolic-execution-experiment/results/M3_vulnerable_system_calls.xlsx
@@ -650,21 +650,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>byte_pool_create</t>
+          <t>timer_create</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BYTE</t>
+          <t>TIMER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,12,20</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -676,17 +676,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>thread_preemption_change</t>
+          <t>byte_pool_create</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THREAD</t>
+          <t>BYTE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>60,208</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5/3</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -702,25 +702,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>timer_create</t>
+          <t>thread_preemption_change</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TIMER</t>
+          <t>THREAD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8,12,20</t>
+          <t>60,208</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
